--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -52,43 +52,7 @@
     <t>诺手被动</t>
   </si>
   <si>
-    <t>Darius_Hemorrhage</t>
-  </si>
-  <si>
-    <t>诺手Q技能</t>
-  </si>
-  <si>
-    <t>Darius_Q</t>
-  </si>
-  <si>
-    <t>诺手W技能</t>
-  </si>
-  <si>
-    <t>Darius_W</t>
-  </si>
-  <si>
-    <t>诺手E技能</t>
-  </si>
-  <si>
-    <t>Darius_E</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Darius_TestLSF</t>
-  </si>
-  <si>
-    <t>诺手Q技能碰撞体</t>
-  </si>
-  <si>
-    <t>Darius_Q_Collider</t>
-  </si>
-  <si>
-    <t>诺手E技能碰撞体</t>
-  </si>
-  <si>
-    <t>Darius_E_Collider</t>
+    <t>Assets/Res/Configs/OtherConfigs/Test.bytes</t>
   </si>
 </sst>
 </file>
@@ -100,8 +64,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -729,13 +693,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1087,7 +1051,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1166,107 +1130,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>105926992199721</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>105927030276134</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10003</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>105927001505821</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>105927001505822</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10005</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
-        <v>105927225966654</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10002</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7">
-        <v>105445486755917</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10004</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -52,7 +52,7 @@
     <t>诺手被动</t>
   </si>
   <si>
-    <t>Assets/Res/Configs/OtherConfigs/Test.bytes</t>
+    <t>Assets/Res/Configs/OtherConfigs/Skill.bytes</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20595" windowHeight="9135"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>BelongToSkillId</t>
   </si>
   <si>
-    <t>SkillConfigName</t>
+    <t>SkillConfigPath</t>
   </si>
   <si>
     <t>int</t>
@@ -49,23 +49,34 @@
     <t>资源名</t>
   </si>
   <si>
-    <t>诺手被动</t>
+    <t>诺手Q技能</t>
+  </si>
+  <si>
+    <t>105926695190565</t>
   </si>
   <si>
     <t>Assets/Res/Configs/OtherConfigs/Skill.bytes</t>
+  </si>
+  <si>
+    <t>诺手Q技能碰撞体</t>
+  </si>
+  <si>
+    <t>1807319661176422408</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/OtherConfigs/Collider.bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -687,19 +698,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1048,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1060,7 +1071,7 @@
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.6333333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.725" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.2666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.45" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.725" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -1120,41 +1131,132 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <v>105926695190565</v>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>10001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22305" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -49,22 +49,22 @@
     <t>资源名</t>
   </si>
   <si>
+    <t>默认碰撞体行为树</t>
+  </si>
+  <si>
+    <t>1807319661176422408</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/BehaveConfigs/DefaultColliderBehave.bytes</t>
+  </si>
+  <si>
     <t>诺手Q技能</t>
   </si>
   <si>
     <t>105926695190565</t>
   </si>
   <si>
-    <t>Assets/Res/Configs/OtherConfigs/Skill.bytes</t>
-  </si>
-  <si>
-    <t>诺手Q技能碰撞体</t>
-  </si>
-  <si>
-    <t>1807319661176422408</t>
-  </si>
-  <si>
-    <t>Assets/Res/Configs/OtherConfigs/Collider.bytes</t>
+    <t>Assets/Res/Configs/BehaveConfigs/SkillBehave.bytes</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1124,9 +1124,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="1">
-        <v>10001</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>10000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1135,15 +1135,15 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
-        <v>10002</v>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>

--- a/Design/Excel/SkillCanvasData.xlsx
+++ b/Design/Excel/SkillCanvasData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22305" windowHeight="8550"/>
+    <workbookView windowWidth="23670" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -25,9 +25,6 @@
     <t>NPBehaveId</t>
   </si>
   <si>
-    <t>BelongToSkillId</t>
-  </si>
-  <si>
     <t>SkillConfigPath</t>
   </si>
   <si>
@@ -43,19 +40,25 @@
     <t>对应技能图数据Id</t>
   </si>
   <si>
-    <t>归属技能Id</t>
-  </si>
-  <si>
     <t>资源名</t>
   </si>
   <si>
+    <t>默认近战攻击</t>
+  </si>
+  <si>
+    <t>1882648525645283328</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/SkillConfigs/Skill_CloseSingleAttack.bytes</t>
+  </si>
+  <si>
     <t>默认碰撞体行为树</t>
   </si>
   <si>
     <t>1807319661176422408</t>
   </si>
   <si>
-    <t>Assets/Res/Configs/BehaveConfigs/DefaultColliderBehave.bytes</t>
+    <t>Assets/Res/Configs/SkillConfigs/Collider_DefaultColliderBehave.bytes</t>
   </si>
   <si>
     <t>诺手Q技能</t>
@@ -64,7 +67,7 @@
     <t>105926695190565</t>
   </si>
   <si>
-    <t>Assets/Res/Configs/BehaveConfigs/SkillBehave.bytes</t>
+    <t>Assets/Res/Configs/SkillConfigs/SkillBehave.bytes</t>
   </si>
 </sst>
 </file>
@@ -1059,25 +1062,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.2666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.725" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.725" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="39.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1090,78 +1092,72 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
         <v>10000</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6"/>
@@ -1175,15 +1171,17 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="3:3">
@@ -1257,6 +1255,9 @@
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
